--- a/outputs/CORVALLIS5.xlsx
+++ b/outputs/CORVALLIS5.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to accomplish tasks using familiar technology and prefers to gather comprehensive information before proceeding. The page contains several links and sections that seem to provide detailed information about contributing to the documentation ("Contribute.md", "README.md"). Abi would likely consider finding and understanding this information a necessary step toward making a documentation contribution.</t>
+Why: The page contains a section titled "Want to help?" with a direct reference to the "Contribute.md" file, which is likely to contain information about documentation contributions. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would likely read through the available information to understand how to contribute.</t>
         </is>
       </c>
     </row>
@@ -435,16 +435,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear section titled "Want to help?" with a direct reference to contributing and a link to "Contribute.md". This suggests where Abi can find detailed documentation about contributing. Given Abi's motivation to accomplish tasks and preference for comprehensive information gathering, this page is adequate for Abi to proceed with searching for documentation contributions.</t>
+Why: The page provides a clear section titled "Want to help?" with a direct reference to the "Contribute.md" file, which is likely to contain information about documentation contributions. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would likely read through the available information to understand how to contribute. The page is structured in a way that makes it easy for Abi to find the relevant information without needing to tinker or guess.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: If Abi follows the link to "Contribute.md" mentioned in the "Want to help?" section, they will land on a page that likely provides detailed information about making documentation contributions. The current page already provides clear guidance on where to go for more information, which aligns with Abi's preference for comprehensive information processing. Additionally, Abi's motivation to accomplish tasks would lead them to follow the provided instructions, and once they arrive at the correct documentation, they will recognize that they are making progress toward their goal.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page does provide a link to the "Contribute.md" file, it does not explicitly state that this file contains information about documentation contributions. Abi, who has low computer self-efficacy and prefers comprehensive information, might not be confident that she is on the right track without more explicit guidance. Additionally, the page contains a lot of information, which might be overwhelming and make it difficult for Abi to determine if she has found all the necessary information.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page lists various .md files, it does not provide explicit instructions or guidance on how to contribute to them directly from this view. Abi might not be confident about how to proceed with contributing to a specific .md file without additional instructions or a clear call to action. Given Abi's preference for detailed information and comprehensive understanding before acting, the lack of explicit guidance could be a barrier. Additionally, Abi's low computer self-efficacy might make them hesitant to proceed without clear instructions.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page lists many files, including several .md files, but it does not provide specific guidance on which file to contribute to or how to make a documentation contribution. Abi, who prefers comprehensive information and has low computer self-efficacy, might not be confident that contributing to the first .md file is the correct step without more explicit instructions. The lack of clear direction could make Abi uncertain about whether this action aligns with her goal of making a documentation contribution.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: Abi may not feel confident clicking on the first .md file without explicit instructions on what this action will do. The page does not provide clear guidance or indication that clicking on the file will allow them to make a documentation contribution. Given Abi's low computer self-efficacy, they may hesitate to take this action without clear instructions. Additionally, Abi prefers process-oriented learning and may feel uncertain about proceeding without a step-by-step guide.</t>
+Why: The page lists many files, including several .md files, but it does not provide specific guidance on which file to contribute to or how to make a documentation contribution. Abi, who has low computer self-efficacy, might not feel confident about clicking on the first .md file without more explicit instructions. Additionally, Abi prefers process-oriented learning and might not be comfortable with the idea of clicking on a file without knowing what to expect. The lack of clear direction could make Abi hesitant to take this action.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the first .md file, Abi lands on a page that provides detailed deployment instructions. However, this page is focused on deployment, not on making documentation contributions. Abi might feel confused and uncertain whether they are making progress toward their goal of contributing to documentation, as the content does not align with their intended task. Given Abi's comprehensive information processing style, they might feel overwhelmed by the technical details and unsure if they are on the right path. Additionally, Abi's low computer self-efficacy could make them hesitant to proceed without clearer guidance.</t>
+Why: After clicking on the first .md file, Abi lands on a page with detailed deployment instructions. However, this page is focused on deployment rather than documentation contributions. Abi, who prefers comprehensive information and has low computer self-efficacy, might not feel confident that she is making progress toward her goal of contributing to documentation. The content is not relevant to her goal, and she might feel lost or unsure about what to do next. This misalignment with her goal and the overwhelming technical details could hinder her progress.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: Although there is an "Edit" button available, the page does not provide clear instructions or context about what clicking the "Edit" button will do. Given Abi's low computer self-efficacy, they might be hesitant to click the button without knowing what to expect. Abi's preference for process-oriented learning would make them more comfortable if there were explicit instructions or a step-by-step guide indicating that clicking "Edit" is the correct next step for making a documentation contribution. Without such guidance, Abi may not feel confident proceeding.</t>
+Why: The page contains an "Edit" button, but it does not provide explicit instructions or context about what will happen after clicking it. Abi, who has low computer self-efficacy, might not feel confident about clicking the "Edit" button without knowing what to expect. Additionally, Abi prefers process-oriented learning and might not be comfortable with the idea of clicking on a button without clear guidance. The lack of explicit instructions or context could make Abi hesitant to take this action.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the edit button, Abi lands on a completely different page that features information about a different project (JabRef Bibliography Management). This sudden change of context would likely confuse Abi, who prefers a comprehensive and consistent information processing style. Abi would not recognize this as progress toward their goal of making a documentation contribution to the original .md file. Additionally, this unexpected change could reduce Abi's confidence and increase uncertainty about whether they did the right thing. This page does not provide the necessary information or context related to the original goal.</t>
+Why: After clicking the "Edit" button, Abi lands on a different page that does not seem to be directly related to editing the .md file she intended to contribute to. The new page contains a lot of information about the JabRef project, but it does not provide clear guidance or confirmation that she is making progress toward her goal of contributing to the documentation. Abi, who prefers comprehensive information and has low computer self-efficacy, might feel confused and uncertain about whether she did the right thing. The lack of clear direction and relevant information could hinder her progress.</t>
         </is>
       </c>
     </row>
